--- a/Proteomics/Terminal/analysis/02_gene-enrichment/output/kegg_ora.xlsx
+++ b/Proteomics/Terminal/analysis/02_gene-enrichment/output/kegg_ora.xlsx
@@ -1,372 +1,401 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nks882\OneDrive - University of Copenhagen\Documents\GitHub\Horse_AF_project\Proteomics\Terminal\analysis\02_gene-enrichment\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AF_vs_Sham_LA" sheetId="1" r:id="rId1"/>
-    <sheet name="AF_vs_Sham_RA" sheetId="2" r:id="rId2"/>
-    <sheet name="AverageDiseaseEffect" sheetId="3" r:id="rId3"/>
+    <sheet name="AF_vs_Sham_LA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AF_vs_Sham_RA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AverageDiseaseEffect" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AverageTreatmentEffect" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Metformin_vs_AF_RA" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Contrast</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>GeneRatio</t>
-  </si>
-  <si>
-    <t>BgRatio</t>
-  </si>
-  <si>
-    <t>pvalue</t>
-  </si>
-  <si>
-    <t>p.adjust</t>
-  </si>
-  <si>
-    <t>qvalue</t>
-  </si>
-  <si>
-    <t>geneID</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>AF_vs_Sham_LA.up</t>
-  </si>
-  <si>
-    <t>AF_vs_Sham_LA</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>Organismal Systems</t>
-  </si>
-  <si>
-    <t>Environmental adaptation</t>
-  </si>
-  <si>
-    <t>ecb04714</t>
-  </si>
-  <si>
-    <t>Thermogenesis</t>
-  </si>
-  <si>
-    <t>14/61</t>
-  </si>
-  <si>
-    <t>44/903</t>
-  </si>
-  <si>
-    <t>100069978/100055438/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034201/100056123/100034244/100053634</t>
-  </si>
-  <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
-    <t>Energy metabolism</t>
-  </si>
-  <si>
-    <t>ecb00190</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>11/61</t>
-  </si>
-  <si>
-    <t>33/903</t>
-  </si>
-  <si>
-    <t>100069978/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
-  </si>
-  <si>
-    <t>Human Diseases</t>
-  </si>
-  <si>
-    <t>Endocrine and metabolic disease</t>
-  </si>
-  <si>
-    <t>ecb04932</t>
-  </si>
-  <si>
-    <t>Non-alcoholic fatty liver disease</t>
-  </si>
-  <si>
-    <t>10/61</t>
-  </si>
-  <si>
-    <t>28/903</t>
-  </si>
-  <si>
-    <t>807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
-  </si>
-  <si>
-    <t>Cardiovascular disease</t>
-  </si>
-  <si>
-    <t>ecb05415</t>
-  </si>
-  <si>
-    <t>Diabetic cardiomyopathy</t>
-  </si>
-  <si>
-    <t>13/61</t>
-  </si>
-  <si>
-    <t>48/903</t>
-  </si>
-  <si>
-    <t>100069978/100055438/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100055407/100034244/100053634</t>
-  </si>
-  <si>
-    <t>Cancer: overview</t>
-  </si>
-  <si>
-    <t>ecb05208</t>
-  </si>
-  <si>
-    <t>Chemical carcinogenesis - reactive oxygen species</t>
-  </si>
-  <si>
-    <t>40/903</t>
-  </si>
-  <si>
-    <t>Nervous system</t>
-  </si>
-  <si>
-    <t>ecb04723</t>
-  </si>
-  <si>
-    <t>Retrograde endocannabinoid signaling</t>
-  </si>
-  <si>
-    <t>8/61</t>
-  </si>
-  <si>
-    <t>26/903</t>
-  </si>
-  <si>
-    <t>100057698/100067936/100064992/100057623/100058223/100063168/100068855/100055407</t>
-  </si>
-  <si>
-    <t>Neurodegenerative disease</t>
-  </si>
-  <si>
-    <t>ecb05016</t>
-  </si>
-  <si>
-    <t>Huntington disease</t>
-  </si>
-  <si>
-    <t>12/61</t>
-  </si>
-  <si>
-    <t>65/903</t>
-  </si>
-  <si>
-    <t>100069978/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100055407/100034244/100053634</t>
-  </si>
-  <si>
-    <t>ecb05012</t>
-  </si>
-  <si>
-    <t>Parkinson disease</t>
-  </si>
-  <si>
-    <t>61/903</t>
-  </si>
-  <si>
-    <t>ecb05020</t>
-  </si>
-  <si>
-    <t>Prion disease</t>
-  </si>
-  <si>
-    <t>72/903</t>
-  </si>
-  <si>
-    <t>100069978/100055269/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
-  </si>
-  <si>
-    <t>ecb05010</t>
-  </si>
-  <si>
-    <t>Alzheimer disease</t>
-  </si>
-  <si>
-    <t>74/903</t>
-  </si>
-  <si>
-    <t>ecb05014</t>
-  </si>
-  <si>
-    <t>Amyotrophic lateral sclerosis</t>
-  </si>
-  <si>
-    <t>77/903</t>
-  </si>
-  <si>
-    <t>100069978/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100146715/100053634</t>
-  </si>
-  <si>
-    <t>ecb05022</t>
-  </si>
-  <si>
-    <t>Pathways of neurodegeneration - multiple diseases</t>
-  </si>
-  <si>
-    <t>88/903</t>
-  </si>
-  <si>
-    <t>100069978/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100055407/100034244/100146715/100053634</t>
-  </si>
-  <si>
-    <t>AF_vs_Sham_RA.up</t>
-  </si>
-  <si>
-    <t>AF_vs_Sham_RA</t>
-  </si>
-  <si>
-    <t>ecb04820</t>
-  </si>
-  <si>
-    <t>Cytoskeleton in muscle cells</t>
-  </si>
-  <si>
-    <t>12/46</t>
-  </si>
-  <si>
-    <t>100070700/100055332/100064285/100059397/100056943/100071760/791234/100072581/100059106/100147640/100064165/100055451</t>
-  </si>
-  <si>
-    <t>Carbohydrate metabolism</t>
-  </si>
-  <si>
-    <t>ecb00010</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>6/46</t>
-  </si>
-  <si>
-    <t>22/903</t>
-  </si>
-  <si>
-    <t>100057725/100057016/100033997/100070818/100063687/100052671</t>
-  </si>
-  <si>
-    <t>Global and overview maps</t>
-  </si>
-  <si>
-    <t>ecb01230</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>24/903</t>
-  </si>
-  <si>
-    <t>100068713/100070818/100063687/100054319/100054730/100052671</t>
-  </si>
-  <si>
-    <t>Endocrine system</t>
-  </si>
-  <si>
-    <t>ecb04922</t>
-  </si>
-  <si>
-    <t>Glucagon signaling pathway</t>
-  </si>
-  <si>
-    <t>100057016/100033997/100070818/100051524/100065274/100063687</t>
-  </si>
-  <si>
-    <t>AverageDiseaseEffect.down</t>
-  </si>
-  <si>
-    <t>AverageDiseaseEffect</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>Environmental Information Processing</t>
-  </si>
-  <si>
-    <t>Signal transduction</t>
-  </si>
-  <si>
-    <t>ecb04010</t>
-  </si>
-  <si>
-    <t>MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>9/68</t>
-  </si>
-  <si>
-    <t>29/903</t>
-  </si>
-  <si>
-    <t>100061130/100057533/100033960/100063217/100053585/100061874/100052828/100063318/100060508</t>
-  </si>
-  <si>
-    <t>ecb04921</t>
-  </si>
-  <si>
-    <t>Oxytocin signaling pathway</t>
-  </si>
-  <si>
-    <t>8/68</t>
-  </si>
-  <si>
-    <t>100057533/100056740/100051282/100069551/100056559/100061874/100052828/100063318</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+  <si>
+    <t xml:space="preserve">Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subcategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BgRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geneID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_LA.up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organismal Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069978/100055438/807849/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034201/100056123/100034244/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb00190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069978/807849/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer: overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical carcinogenesis - reactive oxygen species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrine and metabolic disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-alcoholic fatty liver disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiovascular disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetic cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069978/100055438/807849/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurodegenerative disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkinson disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prion disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069978/100055269/807849/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntington disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amyotrophic lateral sclerosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069978/807849/807845/100057698/100067936/100064992/100057623/100058223/100063168/100068855/100034244/100146715/100053634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nervous system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrograde endocannabinoid signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100057698/100067936/100064992/100057623/100058223/100063168/100068855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzheimer disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathways of neurodegeneration - multiple diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_RA.up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbohydrate metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100057725/100057016/100033997/100070818/100063687/100052671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global and overview maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb01230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100068713/100070818/100063687/100054319/100054730/100052671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoskeleton in muscle cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100055332/100064285/100059397/100056943/100071760/791234/100072581/100059106/100147640/100064165/100055451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageDiseaseEffect.down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageDiseaseEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Information Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100061130/100057533/100033960/100063217/100053585/100061874/100052828/100063318/100060508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrine system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxytocin signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100057533/100056740/100051282/100056559/100061874/100034095/100052828/100063318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageTreatmentEffect.down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageTreatmentEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino acid metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb00250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100069776/100060132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metformin_vs_AF_RA.down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metformin_vs_AF_RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic Information Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb03010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100059868/100070291/100034008/100052952</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -402,20 +431,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N13" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N13" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:N13"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Cluster"/>
@@ -437,9 +457,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N4" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N4"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Cluster"/>
     <tableColumn id="2" name="Contrast"/>
@@ -460,9 +480,55 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N3" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N3" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:N3"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Cluster"/>
+    <tableColumn id="2" name="Contrast"/>
+    <tableColumn id="3" name="Direction"/>
+    <tableColumn id="4" name="category"/>
+    <tableColumn id="5" name="subcategory"/>
+    <tableColumn id="6" name="ID"/>
+    <tableColumn id="7" name="Description"/>
+    <tableColumn id="8" name="GeneRatio"/>
+    <tableColumn id="9" name="BgRatio"/>
+    <tableColumn id="10" name="pvalue"/>
+    <tableColumn id="11" name="p.adjust"/>
+    <tableColumn id="12" name="qvalue"/>
+    <tableColumn id="13" name="geneID"/>
+    <tableColumn id="14" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Cluster"/>
+    <tableColumn id="2" name="Contrast"/>
+    <tableColumn id="3" name="Direction"/>
+    <tableColumn id="4" name="category"/>
+    <tableColumn id="5" name="subcategory"/>
+    <tableColumn id="6" name="ID"/>
+    <tableColumn id="7" name="Description"/>
+    <tableColumn id="8" name="GeneRatio"/>
+    <tableColumn id="9" name="BgRatio"/>
+    <tableColumn id="10" name="pvalue"/>
+    <tableColumn id="11" name="p.adjust"/>
+    <tableColumn id="12" name="qvalue"/>
+    <tableColumn id="13" name="geneID"/>
+    <tableColumn id="14" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:N2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Cluster"/>
     <tableColumn id="2" name="Contrast"/>
@@ -761,19 +827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="29.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -845,23 +906,23 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
-        <v>2.2410413117190201E-7</v>
-      </c>
-      <c r="K2">
-        <v>2.9805849445862899E-5</v>
-      </c>
-      <c r="L2">
-        <v>2.5948899398851801E-5</v>
+      <c r="J2" t="n">
+        <v>0.0000000255419658007329</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00000257973854587402</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.00000209712982363912</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -889,23 +950,23 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="J3">
-        <v>3.2790904871561001E-6</v>
-      </c>
-      <c r="K3">
-        <v>1.7426768908991E-4</v>
-      </c>
-      <c r="L3">
-        <v>1.5171702255552101E-4</v>
+      <c r="J3" t="n">
+        <v>0.00000036011088417762</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0000181855996509698</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0000147834994557128</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -928,28 +989,28 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>4.7750886849097797E-6</v>
-      </c>
-      <c r="K4">
-        <v>1.7426768908991E-4</v>
-      </c>
-      <c r="L4">
-        <v>1.5171702255552101E-4</v>
+      <c r="J4" t="n">
+        <v>0.00000391295872529836</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.000105870896830562</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0000860649291587682</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -963,37 +1024,37 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="n">
+        <v>0.00000477508868490978</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.000105870896830562</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0000860649291587682</v>
+      </c>
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5">
-        <v>5.2411335064634497E-6</v>
-      </c>
-      <c r="K5">
-        <v>1.7426768908991E-4</v>
-      </c>
-      <c r="L5">
-        <v>1.5171702255552101E-4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1007,37 +1068,37 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="n">
+        <v>0.00000524113350646345</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.000105870896830562</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0000860649291587682</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="J6">
-        <v>2.6918788750024701E-5</v>
-      </c>
-      <c r="K6">
-        <v>7.1603978075065805E-4</v>
-      </c>
-      <c r="L6">
-        <v>6.23382476316363E-4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -1060,28 +1121,28 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <v>1.6318038082453799E-4</v>
-      </c>
-      <c r="K7">
-        <v>3.6171651082772698E-3</v>
-      </c>
-      <c r="L7">
-        <v>3.1490950685437199E-3</v>
+      <c r="J7" t="n">
+        <v>0.000396986944339736</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00668261356305222</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00543245292254376</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1095,37 +1156,37 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="n">
+        <v>0.000537550356944867</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00775608372163308</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.00630510193108265</v>
+      </c>
+      <c r="M8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8">
-        <v>7.3996678475217004E-4</v>
-      </c>
-      <c r="K8">
-        <v>1.4059368910291199E-2</v>
-      </c>
-      <c r="L8">
-        <v>1.2240052078607301E-2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1139,37 +1200,37 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9">
-        <v>1.5671025076263701E-3</v>
-      </c>
-      <c r="K9">
-        <v>2.6053079189288401E-2</v>
-      </c>
-      <c r="L9">
-        <v>2.2681746820908E-2</v>
+        <v>58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00073996678475217</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00934208065749615</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00759439594877227</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="N9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1183,37 +1244,37 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10">
-        <v>1.9337243000360101E-3</v>
-      </c>
-      <c r="K10">
-        <v>2.85761479894211E-2</v>
-      </c>
-      <c r="L10">
-        <v>2.48783243279487E-2</v>
+        <v>61</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00106505613067626</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.010907824406569</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00886722567704414</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1224,40 +1285,40 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="n">
+        <v>0.00107998261451179</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.010907824406569</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.00886722567704414</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11">
-        <v>2.4785386504370798E-3</v>
-      </c>
-      <c r="K11">
-        <v>3.2964564050813203E-2</v>
-      </c>
-      <c r="L11">
-        <v>2.8698868584008299E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1271,37 +1332,37 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12">
-        <v>3.5277148800509301E-3</v>
-      </c>
-      <c r="K12">
-        <v>4.2614631697051403E-2</v>
-      </c>
-      <c r="L12">
-        <v>3.7100193800361399E-2</v>
+      <c r="J12" t="n">
+        <v>0.00247853865043708</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0227574912449223</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0185000971037409</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="N12" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1315,59 +1376,54 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13">
-        <v>3.8449291756738101E-3</v>
-      </c>
-      <c r="K13">
-        <v>4.2614631697051403E-2</v>
-      </c>
-      <c r="L13">
-        <v>3.7100193800361399E-2</v>
+      <c r="J13" t="n">
+        <v>0.00384492917567381</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0323614872285879</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0263074101493471</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13">
+        <v>62</v>
+      </c>
+      <c r="N13" t="n">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="38.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,50 +1467,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
       <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="n">
+        <v>0.000641806486306682</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0429839441087142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0392134226956691</v>
+      </c>
+      <c r="M2" t="s">
         <v>82</v>
       </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2">
-        <v>2.2915639942947501E-4</v>
-      </c>
-      <c r="K2">
-        <v>1.9707450350934901E-2</v>
-      </c>
-      <c r="L2">
-        <v>1.78500774292433E-2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1463,142 +1525,94 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="n">
+        <v>0.00106667207768982</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0429839441087142</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0392134226956691</v>
+      </c>
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3">
-        <v>5.0562234303036502E-4</v>
-      </c>
-      <c r="K3">
-        <v>2.1741760750305698E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.9692659675919499E-2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00143279813695714</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0429839441087142</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0392134226956691</v>
+      </c>
+      <c r="M4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4">
-        <v>8.4363075870226404E-4</v>
-      </c>
-      <c r="K4">
-        <v>2.4184081749464899E-2</v>
-      </c>
-      <c r="L4">
-        <v>2.1904798647006202E-2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5">
-        <v>2.0201545273601101E-3</v>
-      </c>
-      <c r="K5">
-        <v>4.3433322338242403E-2</v>
-      </c>
-      <c r="L5">
-        <v>3.9339851322275902E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
+      <c r="N4" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1642,99 +1656,309 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="n">
+        <v>0.000136682787738068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0214591976748767</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0195672201393445</v>
+      </c>
+      <c r="M2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2">
-        <v>1.36682787738068E-4</v>
-      </c>
-      <c r="K2">
-        <v>2.1322514887138599E-2</v>
-      </c>
-      <c r="L2">
-        <v>1.9711096758016099E-2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>6.3153181312569499E-4</v>
-      </c>
-      <c r="K3">
-        <v>4.9259481423804201E-2</v>
-      </c>
-      <c r="L3">
-        <v>4.5536767578010597E-2</v>
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000631531813125695</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.049575247330367</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0452043824132076</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3">
+        <v>106</v>
+      </c>
+      <c r="N3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00327925718900844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0491888578351266</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0483258954169664</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000613380217123162</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.022695068033557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0225982185255902</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>